--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20130" yWindow="510" windowWidth="28760" windowHeight="18330" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -565,7 +565,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -787,6 +787,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,11 +1182,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="23.7265625" customWidth="1" style="95" min="1" max="1"/>
-    <col width="22.453125" customWidth="1" style="95" min="2" max="2"/>
-    <col width="36.26953125" customWidth="1" style="95" min="3" max="3"/>
+    <col width="23.6640625" customWidth="1" style="95" min="1" max="1"/>
+    <col width="22.5" customWidth="1" style="95" min="2" max="2"/>
+    <col width="36.33203125" customWidth="1" style="95" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1196,8 +1197,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Arizona</t>
-        </is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="C1" s="113" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1697,15 +1701,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" style="95" min="1" max="1"/>
-    <col width="36.7265625" customWidth="1" style="95" min="2" max="2"/>
+    <col width="36.6640625" customWidth="1" style="95" min="2" max="2"/>
     <col width="26" customWidth="1" style="95" min="3" max="3"/>
-    <col width="36.26953125" customWidth="1" style="95" min="4" max="4"/>
-    <col width="29.7265625" customWidth="1" style="95" min="5" max="5"/>
-    <col width="35.81640625" bestFit="1" customWidth="1" style="95" min="6" max="6"/>
-    <col width="31.08984375" bestFit="1" customWidth="1" style="95" min="7" max="7"/>
+    <col width="36.33203125" customWidth="1" style="95" min="4" max="4"/>
+    <col width="29.6640625" customWidth="1" style="95" min="5" max="5"/>
+    <col width="35.83203125" bestFit="1" customWidth="1" style="95" min="6" max="6"/>
+    <col width="31.1640625" bestFit="1" customWidth="1" style="95" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1737,7 +1741,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="16" customHeight="1" s="95">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
@@ -1753,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="16" customHeight="1" s="95">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>ISIC 05</t>
@@ -1773,7 +1777,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="16" customHeight="1" s="95">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>ISIC 06</t>
@@ -1809,7 +1813,7 @@
         <v/>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="16" customHeight="1" s="95">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>ISIC 19</t>
@@ -1825,7 +1829,7 @@
         <v/>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="16" customHeight="1" s="95">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>ISIC 351</t>
@@ -1845,7 +1849,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="16" customHeight="1" s="95">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
@@ -1942,7 +1946,7 @@
       <c r="G18" s="54" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="20">
+    <row r="20" ht="16" customHeight="1" s="95">
       <c r="A20" s="32" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
@@ -1999,7 +2003,7 @@
         <v/>
       </c>
       <c r="G21" s="43" t="n">
-        <v>5129951640.29</v>
+        <v>343038100</v>
       </c>
     </row>
     <row r="22">
@@ -2043,7 +2047,7 @@
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="95" thickBot="1"/>
-    <row r="25">
+    <row r="25" ht="16" customHeight="1" s="95">
       <c r="A25" s="32" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
@@ -2100,7 +2104,7 @@
         <v/>
       </c>
       <c r="G26" s="43" t="n">
-        <v>2562551180</v>
+        <v>8696195840</v>
       </c>
     </row>
     <row r="27">
@@ -2328,12 +2332,12 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="46.81640625" customWidth="1" style="95" min="1" max="1"/>
-    <col width="23.54296875" bestFit="1" customWidth="1" style="95" min="2" max="2"/>
-    <col width="12.6328125" bestFit="1" customWidth="1" style="95" min="18" max="18"/>
-    <col width="29.7265625" bestFit="1" customWidth="1" style="95" min="19" max="19"/>
+    <col width="46.83203125" customWidth="1" style="95" min="1" max="1"/>
+    <col width="23.5" bestFit="1" customWidth="1" style="95" min="2" max="2"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="95" min="18" max="18"/>
+    <col width="29.6640625" bestFit="1" customWidth="1" style="95" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5316,14 +5320,14 @@
       <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -20386,14 +20390,14 @@
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -31633,18 +31637,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
-    <mergeCell ref="B2598:AH2598"/>
     <mergeCell ref="B1604:AH1604"/>
     <mergeCell ref="B1698:AH1698"/>
     <mergeCell ref="B146:AG146"/>
@@ -31654,6 +31646,18 @@
     <mergeCell ref="B1227:AH1227"/>
     <mergeCell ref="B1390:AH1390"/>
     <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -31675,14 +31679,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -45736,14 +45740,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col hidden="1" width="22.453125" customWidth="1" style="112" min="1" max="1"/>
+    <col hidden="1" width="22.5" customWidth="1" style="112" min="1" max="1"/>
     <col width="49" customWidth="1" style="112" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" style="112" min="3" max="33"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
-    <col width="9.1796875" customWidth="1" style="112" min="35" max="35"/>
-    <col width="9.1796875" customWidth="1" style="112" min="36" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="112" min="3" max="33"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="112" min="34" max="34"/>
+    <col width="9.1640625" customWidth="1" style="112" min="35" max="35"/>
+    <col width="9.1640625" customWidth="1" style="112" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="95" thickBot="1">
@@ -50483,6 +50487,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B69:AG69"/>
     <mergeCell ref="B1945:AH1945"/>
     <mergeCell ref="B112:AH112"/>
@@ -50496,14 +50508,6 @@
     <mergeCell ref="B1502:AH1502"/>
     <mergeCell ref="B1604:AH1604"/>
     <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
-    <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B2719:AH2719"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -50523,13 +50527,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="36.54296875" customWidth="1" style="95" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" style="95" min="2" max="26"/>
-    <col width="13.81640625" customWidth="1" style="95" min="27" max="27"/>
-    <col width="10.7265625" customWidth="1" style="95" min="28" max="28"/>
-    <col width="10.1796875" customWidth="1" style="95" min="29" max="43"/>
+    <col width="36.5" customWidth="1" style="95" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" style="95" min="2" max="26"/>
+    <col width="13.83203125" customWidth="1" style="95" min="27" max="27"/>
+    <col width="10.6640625" customWidth="1" style="95" min="28" max="28"/>
+    <col width="10.1640625" customWidth="1" style="95" min="29" max="43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">

--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -2003,7 +2003,7 @@
         <v/>
       </c>
       <c r="G21" s="43" t="n">
-        <v>343038100</v>
+        <v>629669000</v>
       </c>
     </row>
     <row r="22">
@@ -2104,7 +2104,7 @@
         <v/>
       </c>
       <c r="G26" s="43" t="n">
-        <v>8696195840</v>
+        <v>21909995593.94</v>
       </c>
     </row>
     <row r="27">

--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -2003,7 +2003,7 @@
         <v/>
       </c>
       <c r="G21" s="43" t="n">
-        <v>629669000</v>
+        <v>952023711.65</v>
       </c>
     </row>
     <row r="22">
@@ -2104,7 +2104,7 @@
         <v/>
       </c>
       <c r="G26" s="43" t="n">
-        <v>21909995593.94</v>
+        <v>11183054417.41</v>
       </c>
     </row>
     <row r="27">
